--- a/biology/Médecine/Susie_Taylor/Susie_Taylor.xlsx
+++ b/biology/Médecine/Susie_Taylor/Susie_Taylor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Susie  Baker King Taylor, née le 5 août 1848 dans le comté de Liberty dans l'État de Géorgie et morte le 6 octobre 1912 à Boston dans l'État du Massachusetts est une Américaine connue pour avoir été  la première infirmière afro-américaine de l'armée américaine dans les forces de l'Union Army durant la Guerre de Sécession et pour avoir été la première enseignante afro-américaine à ouvrir des écoles pour les esclaves fugitifs. La publication de ses mémoires Reminiscences of My Life in Camp with the 33d United States Colored Troops, Late 1st S.C. Volunteers, est un témoignage historique pour la connaissance de la condition des Afro-Américains au sein de l'Union Army.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Susie Baker King Taylor est l'aînée des neuf enfants de Hagar Ann Reed et de Raymond Baker[1] dans la condition d'esclave, quand elle a 7 ans, son propriétaire l'autorise à vivre chez sa grand mère à Savannah en Géorgie. Des femmes afro-américaines lui apprenne à lire et à écrire en secret, car les lois de la Géorgie interdisait le droit à l'instruction pour les Afro-Américains, parmi ces femmes figure la mère Mathilda Beasley (en), une des premières religieuses catholiques[2],[3],[4]. Quand elle atteint l'âge de 14 ans, elle devient libre grâce à son oncle qui l'a confiée à l'équipage d'une canonnière de l'Union Army qui croisait dans les eaux près du fort Pulaski, tenu par des militaires de la Confederate States Army[5].
-Carrière
-En 1902, elle publie ses mémoires Reminiscences of My Life in Camp, sans se douter que cela deviendrait l'un des témoignages majeurs utilisés par les historiens pour comprendre comment les esclaves fugitifs, et plus particulièrement les femmes, ont vécu la guerre de Sécession, leurs situations de réfugiés, d'attente de l'émancipation... Cela grâce à son poste d'infirmière de guerre et ses qualités humaines où elle a pu rencontrer un maximum de personnes[6].
-Vie personnelle
-En 1862, elle épouse Edward King, un sergent de la 1st South Carolina Volunteers, un régiment de l'Armée de l'Union composé d'esclaves fugitifs de la Caroline du Sud et de la Floride, Edward King décède en 1866[7],[5],[8],[9].
-En 1879, elle épouse Russell Taylor qui comme elle décède 1912[1].Susie King repose au Mount Hope Cemetery (Boston) (en) aux côtés de son second époux Russell Taylor[10].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Susie Baker King Taylor est l'aînée des neuf enfants de Hagar Ann Reed et de Raymond Baker dans la condition d'esclave, quand elle a 7 ans, son propriétaire l'autorise à vivre chez sa grand mère à Savannah en Géorgie. Des femmes afro-américaines lui apprenne à lire et à écrire en secret, car les lois de la Géorgie interdisait le droit à l'instruction pour les Afro-Américains, parmi ces femmes figure la mère Mathilda Beasley (en), une des premières religieuses catholiques. Quand elle atteint l'âge de 14 ans, elle devient libre grâce à son oncle qui l'a confiée à l'équipage d'une canonnière de l'Union Army qui croisait dans les eaux près du fort Pulaski, tenu par des militaires de la Confederate States Army.
 </t>
         </is>
       </c>
@@ -545,10 +557,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1902, elle publie ses mémoires Reminiscences of My Life in Camp, sans se douter que cela deviendrait l'un des témoignages majeurs utilisés par les historiens pour comprendre comment les esclaves fugitifs, et plus particulièrement les femmes, ont vécu la guerre de Sécession, leurs situations de réfugiés, d'attente de l'émancipation... Cela grâce à son poste d'infirmière de guerre et ses qualités humaines où elle a pu rencontrer un maximum de personnes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Susie_Taylor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susie_Taylor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1862, elle épouse Edward King, un sergent de la 1st South Carolina Volunteers, un régiment de l'Armée de l'Union composé d'esclaves fugitifs de la Caroline du Sud et de la Floride, Edward King décède en 1866.
+En 1879, elle épouse Russell Taylor qui comme elle décède 1912.Susie King repose au Mount Hope Cemetery (Boston) (en) aux côtés de son second époux Russell Taylor.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Susie_Taylor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susie_Taylor</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les manuscrits et publications de Susie Taylor font l'objet de diverse rééditions contemporaines :
 (en-US) Reminiscences of My Life in Camp With the 33D United States Colored Troops, New York, Arno Press, coll. « American Negro » (no 38) (réimpr. 2018) (1re éd. 1968), 120 p. (ISBN 9780344116469, OCLC 918279871, lire en ligne),
